--- a/tableau/gb_feature_importances.xlsx
+++ b/tableau/gb_feature_importances.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cutterback/Documents/Flatiron/p05-capstone/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cutterback/Documents/Flatiron/p05-capstone/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C993BFE8-7E6F-CC49-9438-044CE0F6C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E4328-051F-4447-AA6D-17C3B6C9D2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16440" xr2:uid="{893C7AC8-F3EC-F943-AF4D-4AF9D3CDF59E}"/>
+    <workbookView xWindow="-1960" yWindow="-17240" windowWidth="28260" windowHeight="16440" xr2:uid="{893C7AC8-F3EC-F943-AF4D-4AF9D3CDF59E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Feature</t>
   </si>
@@ -94,6 +95,114 @@
   </si>
   <si>
     <t>delivery_km</t>
+  </si>
+  <si>
+    <t>product_description_lenght</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product_photos_qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       product_weight_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product_volume_cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pmt_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pmt_boleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       seller_order_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seller_bad_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product_order_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       product_bad_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_item_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_seller_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       order_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_avg_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       order_freight_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> est_delivery_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> act_delivery_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       days_variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> days_late</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is_late</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pmt_approval_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       delivery_km</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> st_AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> st_RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> st_RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tod_overnight</t>
+  </si>
+  <si>
+    <t>seller_order_cnt</t>
+  </si>
+  <si>
+    <t>days_variance</t>
+  </si>
+  <si>
+    <t>days_late</t>
+  </si>
+  <si>
+    <t>product_volume_cm</t>
+  </si>
+  <si>
+    <t>pmt_cnt</t>
+  </si>
+  <si>
+    <t>seller_bad_pct</t>
+  </si>
+  <si>
+    <t>order_freight</t>
+  </si>
+  <si>
+    <t>pmt_approval_days</t>
+  </si>
+  <si>
+    <t>Weak</t>
   </si>
 </sst>
 </file>
@@ -102,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +225,12 @@
       <color theme="1"/>
       <name val="Segoe Print"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB1BED6"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +254,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -457,16 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C6A404-B4C8-E64D-BC3E-F7F9B3E9BA0A}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,149 +595,650 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.5846817299999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.3044443100000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.9949396800000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.1293733299999992E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.9582193400000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.5391958600000003E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.27738899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.27151556E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.22536224699999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.140242749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.7295369400000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5.6437901700000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0357352300000001E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.9225211200000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.7752098599999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.6981262200000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.4429336500000001E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.21199691800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.242569018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.9108297399999999E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0221178300000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.57124954E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.5066054E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.37722494E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.0659341799999997E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C78FBCB-0624-CC4A-AF4A-296E53692A57}">
+  <dimension ref="A2:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="9" max="9" width="19" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
+        <v>6.5846817299999999E-3</v>
+      </c>
       <c r="B2" s="1">
-        <v>0.709540803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+        <v>2.3044443100000002E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.9949396800000002E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.1293733299999992E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.9582193400000002E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.5391958600000003E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.27738899E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>1.27151556E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.22536224699999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.140242749</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.7295369400000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>5.6437901700000003E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0357352300000001E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.9225211200000004E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.7752098599999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>5.6981262200000004E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.4429336500000001E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.21199691800000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.242569018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>2.9108297399999999E-5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0221178300000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.57124954E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>1.5066054E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.37722494E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0659341799999997E-5</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.5846817299999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.3044443100000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.9949396800000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9.1293733299999992E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.9582193400000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9.5391958600000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.27738899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.27151556E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.22536224699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.140242749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4.7295369400000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5.6437901700000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.0357352300000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5.9225211200000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.7752098599999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.11579937E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="J25" s="2">
+        <v>5.6981262200000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.0030776499999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="J26" s="1">
+        <v>1.4429336500000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.21199691800000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.242569018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.140706887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5.9105349699999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.9624504500000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.9776048300000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3.0855791699999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.9674417000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.5118263600000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+      <c r="J29" s="2">
+        <v>2.9108297399999999E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.0221178300000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1">
+        <v>9.57124954E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="J32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.5">
+      <c r="I33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.6359042700000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+      <c r="J33" s="2">
+        <v>1.5066054E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.5">
+      <c r="I34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>5.64608914E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.8461405100000005E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.03011453E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.8938389299999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="J34" s="1">
+        <v>5.37722494E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.5">
+      <c r="I35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.6985192199999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6.5712633700000002E-3</v>
-      </c>
+      <c r="J35" s="1">
+        <v>4.0659341799999997E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.5">
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
